--- a/Code/Results/Cases/Case_9_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000984858892911</v>
+        <v>1.000799857284665</v>
       </c>
       <c r="D2">
-        <v>1.026440269411825</v>
+        <v>1.025754893311648</v>
       </c>
       <c r="E2">
-        <v>1.007330283893573</v>
+        <v>1.007174879454031</v>
       </c>
       <c r="F2">
-        <v>1.030054812787603</v>
+        <v>1.029613978902209</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049936136425251</v>
+        <v>1.049588153497919</v>
       </c>
       <c r="J2">
-        <v>1.023136152849571</v>
+        <v>1.022956671049335</v>
       </c>
       <c r="K2">
-        <v>1.03754314021609</v>
+        <v>1.036866713539337</v>
       </c>
       <c r="L2">
-        <v>1.018688432177182</v>
+        <v>1.01853515367932</v>
       </c>
       <c r="M2">
-        <v>1.041110732584428</v>
+        <v>1.040675602809111</v>
       </c>
       <c r="N2">
-        <v>1.011663056996061</v>
+        <v>1.013322419473996</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041108777511184</v>
+        <v>1.040764401677044</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037616518182815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03714701018431</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021906362173173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004607892377907</v>
+        <v>1.004286704824288</v>
       </c>
       <c r="D3">
-        <v>1.02893941548361</v>
+        <v>1.028075745527356</v>
       </c>
       <c r="E3">
-        <v>1.010158245531092</v>
+        <v>1.009884032102503</v>
       </c>
       <c r="F3">
-        <v>1.032681427488551</v>
+        <v>1.032111611339518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050712323080299</v>
+        <v>1.050273360122755</v>
       </c>
       <c r="J3">
-        <v>1.024973724964966</v>
+        <v>1.02466118819731</v>
       </c>
       <c r="K3">
-        <v>1.039214931540015</v>
+        <v>1.038361565511533</v>
       </c>
       <c r="L3">
-        <v>1.020662778927769</v>
+        <v>1.020391987866567</v>
       </c>
       <c r="M3">
-        <v>1.042912546463409</v>
+        <v>1.0423494651563</v>
       </c>
       <c r="N3">
-        <v>1.012279516048299</v>
+        <v>1.013776634255913</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042534789780168</v>
+        <v>1.042089149795656</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038795955105408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038201057937927</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022202470644991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006911850170627</v>
+        <v>1.006504966597607</v>
       </c>
       <c r="D4">
-        <v>1.03052986169572</v>
+        <v>1.029553452894401</v>
       </c>
       <c r="E4">
-        <v>1.011962500162611</v>
+        <v>1.011613418681456</v>
       </c>
       <c r="F4">
-        <v>1.034357189400329</v>
+        <v>1.033705934643073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05119194676043</v>
+        <v>1.050695344832616</v>
       </c>
       <c r="J4">
-        <v>1.026140387542801</v>
+        <v>1.025743725765832</v>
       </c>
       <c r="K4">
-        <v>1.04027326892076</v>
+        <v>1.039307812799495</v>
       </c>
       <c r="L4">
-        <v>1.02191866085027</v>
+        <v>1.021573671842318</v>
       </c>
       <c r="M4">
-        <v>1.044057909559038</v>
+        <v>1.043413890941903</v>
       </c>
       <c r="N4">
-        <v>1.012670935427052</v>
+        <v>1.01406517251049</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043441264761338</v>
+        <v>1.04293156909642</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039545188359653</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038871115226834</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022387431139876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007873547292497</v>
+        <v>1.007431099807863</v>
       </c>
       <c r="D5">
-        <v>1.031195622381994</v>
+        <v>1.030172380794547</v>
       </c>
       <c r="E5">
-        <v>1.012717329897365</v>
+        <v>1.012337148277351</v>
       </c>
       <c r="F5">
-        <v>1.035058502899893</v>
+        <v>1.034373435187574</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051389946184244</v>
+        <v>1.050869374154012</v>
       </c>
       <c r="J5">
-        <v>1.026628063716651</v>
+        <v>1.026196401270094</v>
       </c>
       <c r="K5">
-        <v>1.040716037816923</v>
+        <v>1.039703971300361</v>
       </c>
       <c r="L5">
-        <v>1.022443839854573</v>
+        <v>1.022067995952686</v>
       </c>
       <c r="M5">
-        <v>1.044536975109638</v>
+        <v>1.043859317846339</v>
       </c>
       <c r="N5">
-        <v>1.012834901416276</v>
+        <v>1.014186101130201</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043820411386736</v>
+        <v>1.043284093356895</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039865435472737</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039159115226968</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022464649640016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008037524778031</v>
+        <v>1.007589025173347</v>
       </c>
       <c r="D6">
-        <v>1.03131115429886</v>
+        <v>1.030280029636126</v>
       </c>
       <c r="E6">
-        <v>1.012846513432131</v>
+        <v>1.012461028753022</v>
       </c>
       <c r="F6">
-        <v>1.035178839551597</v>
+        <v>1.034488070277047</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051424970035717</v>
+        <v>1.050900361824556</v>
       </c>
       <c r="J6">
-        <v>1.026712617016238</v>
+        <v>1.026274994088118</v>
       </c>
       <c r="K6">
-        <v>1.04079412665974</v>
+        <v>1.039774212021345</v>
       </c>
       <c r="L6">
-        <v>1.022534484794406</v>
+        <v>1.022153378087791</v>
       </c>
       <c r="M6">
-        <v>1.044620007708093</v>
+        <v>1.043936676564243</v>
       </c>
       <c r="N6">
-        <v>1.012863746387502</v>
+        <v>1.01420741059728</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043886125817382</v>
+        <v>1.043345317357506</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039929396569833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039218395382097</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022478774190303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006932900380227</v>
+        <v>1.006532502905022</v>
       </c>
       <c r="D7">
-        <v>1.030549753661029</v>
+        <v>1.029577436593577</v>
       </c>
       <c r="E7">
-        <v>1.01198009129435</v>
+        <v>1.011636802558012</v>
       </c>
       <c r="F7">
-        <v>1.034374341358056</v>
+        <v>1.033726674501862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051200193694185</v>
+        <v>1.050705670731166</v>
       </c>
       <c r="J7">
-        <v>1.026154882808198</v>
+        <v>1.025764539853408</v>
       </c>
       <c r="K7">
-        <v>1.040290055483061</v>
+        <v>1.039328640988927</v>
       </c>
       <c r="L7">
-        <v>1.021933092195974</v>
+        <v>1.021593826471138</v>
       </c>
       <c r="M7">
-        <v>1.04407200277042</v>
+        <v>1.043431529467773</v>
       </c>
       <c r="N7">
-        <v>1.01267694115073</v>
+        <v>1.014097499836018</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043452418547867</v>
+        <v>1.042945528759999</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039577174934426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038907957411484</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022393260432815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002227864820015</v>
+        <v>1.002018230472199</v>
       </c>
       <c r="D8">
-        <v>1.02730382610242</v>
+        <v>1.02657238670383</v>
       </c>
       <c r="E8">
-        <v>1.008300657605727</v>
+        <v>1.008124272180596</v>
       </c>
       <c r="F8">
-        <v>1.030956960652965</v>
+        <v>1.030484760975119</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050209954609137</v>
+        <v>1.049838454377701</v>
       </c>
       <c r="J8">
-        <v>1.023771638249991</v>
+        <v>1.023568049701692</v>
       </c>
       <c r="K8">
-        <v>1.038126227228193</v>
+        <v>1.037404057086788</v>
       </c>
       <c r="L8">
-        <v>1.019369352992013</v>
+        <v>1.019195308215799</v>
       </c>
       <c r="M8">
-        <v>1.041733312517951</v>
+        <v>1.041267042195134</v>
       </c>
       <c r="N8">
-        <v>1.011877716957565</v>
+        <v>1.013565232012872</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041601507202144</v>
+        <v>1.041232485972825</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03805173926792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037552151881831</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022016362334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9936018500926396</v>
+        <v>0.9937254335302503</v>
       </c>
       <c r="D9">
-        <v>1.021356183954624</v>
+        <v>1.021055065812659</v>
       </c>
       <c r="E9">
-        <v>1.001601348749879</v>
+        <v>1.001715021625482</v>
       </c>
       <c r="F9">
-        <v>1.02473400702777</v>
+        <v>1.024574224248471</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048280226679527</v>
+        <v>1.048127646239192</v>
       </c>
       <c r="J9">
-        <v>1.019382584348308</v>
+        <v>1.01950172532572</v>
       </c>
       <c r="K9">
-        <v>1.034112020248746</v>
+        <v>1.033815531975655</v>
       </c>
       <c r="L9">
-        <v>1.014668498506252</v>
+        <v>1.014780334948196</v>
       </c>
       <c r="M9">
-        <v>1.037438145047268</v>
+        <v>1.037280797982183</v>
       </c>
       <c r="N9">
-        <v>1.010404248419362</v>
+        <v>1.012490632123506</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038202167299379</v>
+        <v>1.038077637237674</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035210238790532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035011364151123</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021290448025503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9876617129653245</v>
+        <v>0.9880499597680841</v>
       </c>
       <c r="D10">
-        <v>1.017292110824231</v>
+        <v>1.017310196239948</v>
       </c>
       <c r="E10">
-        <v>0.9970290197947818</v>
+        <v>0.9973726613442471</v>
       </c>
       <c r="F10">
-        <v>1.020561430706345</v>
+        <v>1.020636983905962</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046897560314666</v>
+        <v>1.046906710577363</v>
       </c>
       <c r="J10">
-        <v>1.016373557612561</v>
+        <v>1.016745857287615</v>
       </c>
       <c r="K10">
-        <v>1.031356015472872</v>
+        <v>1.031373788559172</v>
       </c>
       <c r="L10">
-        <v>1.011452124201607</v>
+        <v>1.011789515790687</v>
       </c>
       <c r="M10">
-        <v>1.034569107663653</v>
+        <v>1.034643366957605</v>
       </c>
       <c r="N10">
-        <v>1.009399962716097</v>
+        <v>1.011877490837487</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035983100284832</v>
+        <v>1.036041868220125</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033278413569008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033303425021335</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02079066048915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9853765689596896</v>
+        <v>0.9858956844154062</v>
       </c>
       <c r="D11">
-        <v>1.015886847905159</v>
+        <v>1.016041899323053</v>
       </c>
       <c r="E11">
-        <v>0.9953274262730517</v>
+        <v>0.99578286984072</v>
       </c>
       <c r="F11">
-        <v>1.019592825718464</v>
+        <v>1.019773116478787</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046467260174792</v>
+        <v>1.046545658792145</v>
       </c>
       <c r="J11">
-        <v>1.015370612625428</v>
+        <v>1.015867223046139</v>
       </c>
       <c r="K11">
-        <v>1.030515254233664</v>
+        <v>1.030667499884085</v>
       </c>
       <c r="L11">
-        <v>1.010338001752619</v>
+        <v>1.010784755685307</v>
       </c>
       <c r="M11">
-        <v>1.034154473096275</v>
+        <v>1.034331532201768</v>
       </c>
       <c r="N11">
-        <v>1.009109806157536</v>
+        <v>1.011903472153491</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036092375652962</v>
+        <v>1.036232427305293</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032716896322983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03284020046846</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020679161981928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.984622087065197</v>
+        <v>0.9851835744446953</v>
       </c>
       <c r="D12">
-        <v>1.015475194643261</v>
+        <v>1.015673297307136</v>
       </c>
       <c r="E12">
-        <v>0.9947849735411821</v>
+        <v>0.9952751698529925</v>
       </c>
       <c r="F12">
-        <v>1.019523155946611</v>
+        <v>1.019736979809053</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046361513757317</v>
+        <v>1.046461657719938</v>
       </c>
       <c r="J12">
-        <v>1.015091834333514</v>
+        <v>1.015628503626755</v>
       </c>
       <c r="K12">
-        <v>1.030311800871289</v>
+        <v>1.030506258344095</v>
       </c>
       <c r="L12">
-        <v>1.010012771910712</v>
+        <v>1.010493453446717</v>
       </c>
       <c r="M12">
-        <v>1.034285643632751</v>
+        <v>1.034495573653324</v>
       </c>
       <c r="N12">
-        <v>1.009050835439665</v>
+        <v>1.011964545171013</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036523284799835</v>
+        <v>1.036689280488555</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032573047389103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032726199266274</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.0206663820045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9850090061175244</v>
+        <v>0.9855370588051716</v>
       </c>
       <c r="D13">
-        <v>1.015818695592751</v>
+        <v>1.015983149073714</v>
       </c>
       <c r="E13">
-        <v>0.9951082360881215</v>
+        <v>0.9955672044175145</v>
       </c>
       <c r="F13">
-        <v>1.020165030046194</v>
+        <v>1.020353730061142</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046513288974446</v>
+        <v>1.046596427674501</v>
       </c>
       <c r="J13">
-        <v>1.015366649608544</v>
+        <v>1.015871472757207</v>
       </c>
       <c r="K13">
-        <v>1.030605944157544</v>
+        <v>1.030767384259459</v>
       </c>
       <c r="L13">
-        <v>1.010285407326525</v>
+        <v>1.010735504198004</v>
       </c>
       <c r="M13">
-        <v>1.034873062748364</v>
+        <v>1.03505834341587</v>
       </c>
       <c r="N13">
-        <v>1.00917238750915</v>
+        <v>1.012025886007115</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.037264946386261</v>
+        <v>1.037411414400997</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032778517200582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032908078500859</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020734566801565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9857961902931537</v>
+        <v>0.9862677528030711</v>
       </c>
       <c r="D14">
-        <v>1.016400775112582</v>
+        <v>1.016507894652863</v>
       </c>
       <c r="E14">
-        <v>0.9957259559607807</v>
+        <v>0.9961344968953885</v>
       </c>
       <c r="F14">
-        <v>1.020934999711846</v>
+        <v>1.021080396564304</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046735613794766</v>
+        <v>1.046789776852672</v>
       </c>
       <c r="J14">
-        <v>1.015808557322364</v>
+        <v>1.016259670476515</v>
       </c>
       <c r="K14">
-        <v>1.031036458123106</v>
+        <v>1.031141639157708</v>
       </c>
       <c r="L14">
-        <v>1.010746002463693</v>
+        <v>1.011146746085368</v>
       </c>
       <c r="M14">
-        <v>1.035489090509196</v>
+        <v>1.035631886554475</v>
       </c>
       <c r="N14">
-        <v>1.009338821908508</v>
+        <v>1.012070159401793</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037925484979013</v>
+        <v>1.03803835278261</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033084335297296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033174252166537</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020819029038491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9862420005389865</v>
+        <v>0.9866833965042574</v>
       </c>
       <c r="D15">
-        <v>1.016715844709076</v>
+        <v>1.016792076726649</v>
       </c>
       <c r="E15">
-        <v>0.9960705355205038</v>
+        <v>0.9964525857314361</v>
       </c>
       <c r="F15">
-        <v>1.02129430239862</v>
+        <v>1.021416268291195</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046850358622263</v>
+        <v>1.0468889079646</v>
       </c>
       <c r="J15">
-        <v>1.016043915121062</v>
+        <v>1.016466337131156</v>
       </c>
       <c r="K15">
-        <v>1.031259046536972</v>
+        <v>1.031333909483787</v>
       </c>
       <c r="L15">
-        <v>1.010994596106775</v>
+        <v>1.011369411015467</v>
       </c>
       <c r="M15">
-        <v>1.035755748842304</v>
+        <v>1.035875549850948</v>
       </c>
       <c r="N15">
-        <v>1.009421622794281</v>
+        <v>1.012086097092594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038173835214831</v>
+        <v>1.03826852495281</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033247601264205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033316649669046</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020860232859033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.988687600049857</v>
+        <v>0.9889755527023208</v>
       </c>
       <c r="D16">
-        <v>1.018384109523975</v>
+        <v>1.018298954537044</v>
       </c>
       <c r="E16">
-        <v>0.9979422106392838</v>
+        <v>0.998191204938274</v>
       </c>
       <c r="F16">
-        <v>1.022977131663468</v>
+        <v>1.022976609356871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047431220807197</v>
+        <v>1.047388133372379</v>
       </c>
       <c r="J16">
-        <v>1.017279097178185</v>
+        <v>1.017555293266165</v>
       </c>
       <c r="K16">
-        <v>1.032393454352946</v>
+        <v>1.032309761793255</v>
       </c>
       <c r="L16">
-        <v>1.012311931450618</v>
+        <v>1.012556420689757</v>
       </c>
       <c r="M16">
-        <v>1.036908062910999</v>
+        <v>1.036907549469715</v>
       </c>
       <c r="N16">
-        <v>1.009828578049926</v>
+        <v>1.012164648389366</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039045855772075</v>
+        <v>1.039045449940674</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034052846169678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034010084878625</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021060517725003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9901535683176874</v>
+        <v>0.9903608803190421</v>
       </c>
       <c r="D17">
-        <v>1.019360041044777</v>
+        <v>1.019186123276749</v>
       </c>
       <c r="E17">
-        <v>0.9990579577506138</v>
+        <v>0.9992376002608483</v>
       </c>
       <c r="F17">
-        <v>1.023860450019339</v>
+        <v>1.023792894247333</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04775698794664</v>
+        <v>1.047668954342461</v>
       </c>
       <c r="J17">
-        <v>1.017995460705859</v>
+        <v>1.018194582454506</v>
       </c>
       <c r="K17">
-        <v>1.033036925210286</v>
+        <v>1.0328659100751</v>
       </c>
       <c r="L17">
-        <v>1.013082524565719</v>
+        <v>1.013259010324305</v>
       </c>
       <c r="M17">
-        <v>1.037462664998639</v>
+        <v>1.037396223843365</v>
       </c>
       <c r="N17">
-        <v>1.010053684406891</v>
+        <v>1.012230480973066</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039355028200991</v>
+        <v>1.039302506908637</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034510399206917</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034406142407358</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021170005725348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9909010492719801</v>
+        <v>0.9910750935402409</v>
       </c>
       <c r="D18">
-        <v>1.019807078987805</v>
+        <v>1.019594302885365</v>
       </c>
       <c r="E18">
-        <v>0.999611620588942</v>
+        <v>0.9997635619827643</v>
       </c>
       <c r="F18">
-        <v>1.024086370225139</v>
+        <v>1.023989308756971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047884074019167</v>
+        <v>1.047776347766496</v>
       </c>
       <c r="J18">
-        <v>1.018312266568091</v>
+        <v>1.018479565534468</v>
       </c>
       <c r="K18">
-        <v>1.033292456124891</v>
+        <v>1.033083172573726</v>
       </c>
       <c r="L18">
-        <v>1.013437061336562</v>
+        <v>1.013586377903248</v>
       </c>
       <c r="M18">
-        <v>1.037501901896847</v>
+        <v>1.037406416330259</v>
       </c>
       <c r="N18">
-        <v>1.010134569885226</v>
+        <v>1.012248000987702</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039148015451027</v>
+        <v>1.039072518962198</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034679405309459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03454695613193</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021202553494452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9909881842579418</v>
+        <v>0.9911693706995808</v>
       </c>
       <c r="D19">
-        <v>1.019769218487919</v>
+        <v>1.019562444078395</v>
       </c>
       <c r="E19">
-        <v>0.9996476177738575</v>
+        <v>0.9998074255140165</v>
       </c>
       <c r="F19">
-        <v>1.023702843122644</v>
+        <v>1.023609794653011</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047830873167392</v>
+        <v>1.047726178493515</v>
       </c>
       <c r="J19">
-        <v>1.018259377652494</v>
+        <v>1.018433584963152</v>
       </c>
       <c r="K19">
-        <v>1.033192454959921</v>
+        <v>1.032989056766097</v>
       </c>
       <c r="L19">
-        <v>1.013407860461685</v>
+        <v>1.013564922589842</v>
       </c>
       <c r="M19">
-        <v>1.037062184779474</v>
+        <v>1.036970640439004</v>
       </c>
       <c r="N19">
-        <v>1.010085167722962</v>
+        <v>1.012202622255863</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038474267096203</v>
+        <v>1.038401863030556</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034615110209941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034487446279101</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021163660003742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9892210437723651</v>
+        <v>0.9895189255282035</v>
       </c>
       <c r="D20">
-        <v>1.018371043429916</v>
+        <v>1.018291989349708</v>
       </c>
       <c r="E20">
-        <v>0.998230029476424</v>
+        <v>0.9984945122759328</v>
       </c>
       <c r="F20">
-        <v>1.021662408707291</v>
+        <v>1.021664518599213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047274561056955</v>
+        <v>1.04723454850448</v>
       </c>
       <c r="J20">
-        <v>1.017173894071171</v>
+        <v>1.017459940653996</v>
       </c>
       <c r="K20">
-        <v>1.03209837300713</v>
+        <v>1.032020645224872</v>
       </c>
       <c r="L20">
-        <v>1.01230407324551</v>
+        <v>1.012563885626812</v>
       </c>
       <c r="M20">
-        <v>1.035334753350402</v>
+        <v>1.035336828141204</v>
       </c>
       <c r="N20">
-        <v>1.009670616628338</v>
+        <v>1.011970673334418</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036578449091465</v>
+        <v>1.036580091076445</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033845479960031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033807062876222</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020925670136011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9846936272574739</v>
+        <v>0.9852975600599841</v>
       </c>
       <c r="D21">
-        <v>1.015244756638597</v>
+        <v>1.015479833478083</v>
       </c>
       <c r="E21">
-        <v>0.9947478851694438</v>
+        <v>0.9952814307702855</v>
       </c>
       <c r="F21">
-        <v>1.018370466772151</v>
+        <v>1.018612646116422</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046172374070536</v>
+        <v>1.046291225561762</v>
       </c>
       <c r="J21">
-        <v>1.014845540114977</v>
+        <v>1.015423110208541</v>
       </c>
       <c r="K21">
-        <v>1.029942955949946</v>
+        <v>1.030173752826242</v>
       </c>
       <c r="L21">
-        <v>1.009829448363077</v>
+        <v>1.010352752728584</v>
       </c>
       <c r="M21">
-        <v>1.033011967375947</v>
+        <v>1.033249772599999</v>
       </c>
       <c r="N21">
-        <v>1.00888504781116</v>
+        <v>1.01184392391709</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034699124604166</v>
+        <v>1.034887333000361</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032324751398361</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032504808440321</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020542539600279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9818056439009148</v>
+        <v>0.9826030960272949</v>
       </c>
       <c r="D22">
-        <v>1.013259057893947</v>
+        <v>1.013692703192246</v>
       </c>
       <c r="E22">
-        <v>0.9925364459606129</v>
+        <v>0.9932400003936287</v>
       </c>
       <c r="F22">
-        <v>1.016317039127534</v>
+        <v>1.016711121355311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045459912376939</v>
+        <v>1.045679007807944</v>
       </c>
       <c r="J22">
-        <v>1.013365710350547</v>
+        <v>1.014126313013003</v>
       </c>
       <c r="K22">
-        <v>1.02857234820543</v>
+        <v>1.028997699255756</v>
       </c>
       <c r="L22">
-        <v>1.008257221580548</v>
+        <v>1.008946574299131</v>
       </c>
       <c r="M22">
-        <v>1.031572037520045</v>
+        <v>1.0319586410118</v>
       </c>
       <c r="N22">
-        <v>1.008387000165117</v>
+        <v>1.011756219861877</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033559506476933</v>
+        <v>1.033865480136915</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031342115454538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031658437230701</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020297104664735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9833348705119662</v>
+        <v>0.9840182545174916</v>
       </c>
       <c r="D23">
-        <v>1.014306029030902</v>
+        <v>1.014626516121225</v>
       </c>
       <c r="E23">
-        <v>0.9937054902533519</v>
+        <v>0.9943086188152942</v>
       </c>
       <c r="F23">
-        <v>1.017402228544487</v>
+        <v>1.017709034247337</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045835609826054</v>
+        <v>1.04599759139851</v>
       </c>
       <c r="J23">
-        <v>1.014146217237101</v>
+        <v>1.014798954307932</v>
       </c>
       <c r="K23">
-        <v>1.02929293484599</v>
+        <v>1.029607448857306</v>
       </c>
       <c r="L23">
-        <v>1.009086952932629</v>
+        <v>1.00967822494024</v>
       </c>
       <c r="M23">
-        <v>1.032331634175155</v>
+        <v>1.032632766959129</v>
       </c>
       <c r="N23">
-        <v>1.008648437258118</v>
+        <v>1.011758197262461</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034160681905679</v>
+        <v>1.034399010394031</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03184193434492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.0320789452538</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020422881858736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9892496148936043</v>
+        <v>0.9895480481891501</v>
       </c>
       <c r="D24">
-        <v>1.018368544538967</v>
+        <v>1.018289410085092</v>
       </c>
       <c r="E24">
-        <v>0.9982455089132946</v>
+        <v>0.9985107780845608</v>
       </c>
       <c r="F24">
-        <v>1.021617916155922</v>
+        <v>1.021620026776303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047265087468772</v>
+        <v>1.047225033576692</v>
       </c>
       <c r="J24">
-        <v>1.017167865959147</v>
+        <v>1.017454459849109</v>
       </c>
       <c r="K24">
-        <v>1.032080587973881</v>
+        <v>1.032002779472159</v>
       </c>
       <c r="L24">
-        <v>1.012303505595968</v>
+        <v>1.012564096698818</v>
       </c>
       <c r="M24">
-        <v>1.035275742569542</v>
+        <v>1.035277818117741</v>
       </c>
       <c r="N24">
-        <v>1.009662728104339</v>
+        <v>1.011961180281293</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03649076319136</v>
+        <v>1.0364924058578</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03380542522648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033764280974346</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020917104238697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9958845725024449</v>
+        <v>0.9959100178403867</v>
       </c>
       <c r="D25">
-        <v>1.022936213215204</v>
+        <v>1.022514955533339</v>
       </c>
       <c r="E25">
-        <v>1.003370185683631</v>
+        <v>1.003398274486049</v>
       </c>
       <c r="F25">
-        <v>1.026377808512258</v>
+        <v>1.026129811948545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048808756866517</v>
+        <v>1.048595172501058</v>
       </c>
       <c r="J25">
-        <v>1.020551235420115</v>
+        <v>1.020575814553403</v>
       </c>
       <c r="K25">
-        <v>1.03518861011905</v>
+        <v>1.034773528144172</v>
       </c>
       <c r="L25">
-        <v>1.01591640817679</v>
+        <v>1.015944064683258</v>
       </c>
       <c r="M25">
-        <v>1.038579991858772</v>
+        <v>1.038335599333276</v>
       </c>
       <c r="N25">
-        <v>1.010798507520993</v>
+        <v>1.012745374229432</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039105864814427</v>
+        <v>1.038912444115394</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036000096247368</v>
+        <v>1.0357201679281</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021487694743482</v>
       </c>
     </row>
   </sheetData>
